--- a/medicine/Sexualité et sexologie/Michalina_Wisłocka/Michalina_Wisłocka.xlsx
+++ b/medicine/Sexualité et sexologie/Michalina_Wisłocka/Michalina_Wisłocka.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Michalina_Wis%C5%82ocka</t>
+          <t>Michalina_Wisłocka</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michalina Anna Wisłocka prononcé en polonais : [mʲi.xaˈlʲi.na ˈan̪ːa viˈswɔt͡ska], née Braun le 1er juillet 1921 et morte le 5 février 2005, est une gynécologue et sexologue polonaise. 
-Elle est l'auteure de Sztuka kochania (traduisible en français par L'Art d'aimer[1]), un des premiers guides de la sexualité publié dans les pays communistes.
+Elle est l'auteure de Sztuka kochania (traduisible en français par L'Art d'aimer), un des premiers guides de la sexualité publié dans les pays communistes.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Michalina_Wis%C5%82ocka</t>
+          <t>Michalina_Wisłocka</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son livre L'Art d'aimer est devenu un best-seller, avec un tirage total de 7 millions d'exemplaires, et a été à l'origine d'une plus grande ouverture sur les questions de sexe en Pologne.
 Elle a été cofondatrice de la Société de la maternité raisonnable, où elle a travaillé sur des traitements contre l'infertilité et sur la contraception.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Michalina_Wis%C5%82ocka</t>
+          <t>Michalina_Wisłocka</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Représentations culturelles</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La vie de Michalina Wisłocka est représentée dans le biopic, The Art of Loving (Sztuka kochania. Historia Michaliny Wislockiej) de Maria Sadowska, sorti en 2017.
 </t>
